--- a/cfs_6_0.45.xlsx
+++ b/cfs_6_0.45.xlsx
@@ -527,10 +527,10 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.353</v>
+        <v>0.407</v>
       </c>
       <c r="I2" t="n">
         <v>0.639</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -588,7 +588,7 @@
         <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>0.476</v>
+        <v>0.447</v>
       </c>
       <c r="M3" t="n">
         <v>5.855072463768116</v>
@@ -610,7 +610,7 @@
         <v>0.68</v>
       </c>
       <c r="D4" t="n">
-        <v>0.444</v>
+        <v>0.479</v>
       </c>
       <c r="E4" t="n">
         <v>0.601</v>
@@ -619,7 +619,7 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.642</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.72</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -720,7 +720,7 @@
         <v>0.589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.314</v>
+        <v>0.446</v>
       </c>
       <c r="K6" t="n">
         <v>0.496</v>
@@ -745,7 +745,7 @@
         <v>0.546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.606</v>
+        <v>0.679</v>
       </c>
       <c r="D7" t="n">
         <v>0.456</v>
@@ -766,7 +766,7 @@
         <v>0.554</v>
       </c>
       <c r="J7" t="n">
-        <v>0.308</v>
+        <v>0.408</v>
       </c>
       <c r="K7" t="n">
         <v>0.481</v>
@@ -791,7 +791,7 @@
         <v>0.64</v>
       </c>
       <c r="C8" t="n">
-        <v>0.724</v>
+        <v>0.657</v>
       </c>
       <c r="D8" t="n">
         <v>0.487</v>
@@ -818,7 +818,7 @@
         <v>0.465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.51</v>
+        <v>0.471</v>
       </c>
       <c r="M8" t="n">
         <v>2.60377358490566</v>
@@ -858,7 +858,7 @@
         <v>0.527</v>
       </c>
       <c r="J9" t="n">
-        <v>0.281</v>
+        <v>0.367</v>
       </c>
       <c r="K9" t="n">
         <v>0.477</v>
@@ -889,7 +889,7 @@
         <v>0.48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.64</v>
+        <v>0.595</v>
       </c>
       <c r="F10" t="n">
         <v>0.604</v>
@@ -929,7 +929,7 @@
         <v>0.6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.738</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>0.466</v>
@@ -996,7 +996,7 @@
         <v>0.542</v>
       </c>
       <c r="J12" t="n">
-        <v>0.315</v>
+        <v>0.338</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1067,7 +1067,7 @@
         <v>0.575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="D14" t="n">
         <v>0.443</v>
@@ -1094,7 +1094,7 @@
         <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>0.481</v>
+        <v>0.455</v>
       </c>
       <c r="M14" t="n">
         <v>3.949152542372881</v>
@@ -1125,7 +1125,7 @@
         <v>0.596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.736</v>
+        <v>0.756</v>
       </c>
       <c r="H15" t="n">
         <v>0.343</v>
@@ -1171,7 +1171,7 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.724</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
         <v>0.35</v>
@@ -1186,7 +1186,7 @@
         <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>0.482</v>
+        <v>0.43</v>
       </c>
       <c r="M16" t="n">
         <v>6.722222222222222</v>
@@ -1226,7 +1226,7 @@
         <v>0.53</v>
       </c>
       <c r="J17" t="n">
-        <v>0.251</v>
+        <v>0.325</v>
       </c>
       <c r="K17" t="n">
         <v>0.441</v>
@@ -1266,7 +1266,7 @@
         <v>0.76</v>
       </c>
       <c r="H18" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I18" t="n">
         <v>0.5580000000000001</v>
@@ -1346,7 +1346,7 @@
         <v>0.673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.465</v>
+        <v>0.473</v>
       </c>
       <c r="E20" t="n">
         <v>0.594</v>
@@ -1401,7 +1401,7 @@
         <v>0.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.698</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0.329</v>
@@ -1447,13 +1447,13 @@
         <v>0.604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.632</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
         <v>0.353</v>
       </c>
       <c r="I22" t="n">
-        <v>0.546</v>
+        <v>0.549</v>
       </c>
       <c r="J22" t="n">
         <v>0.32</v>
@@ -1499,7 +1499,7 @@
         <v>0.374</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6</v>
+        <v>0.581</v>
       </c>
       <c r="J23" t="n">
         <v>0.383</v>
@@ -1508,7 +1508,7 @@
         <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>0.486</v>
+        <v>0.446</v>
       </c>
       <c r="M23" t="n">
         <v>3.095238095238095</v>
@@ -1539,7 +1539,7 @@
         <v>0.577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.66</v>
+        <v>0.704</v>
       </c>
       <c r="H24" t="n">
         <v>0.361</v>
@@ -1573,13 +1573,13 @@
         <v>0.67</v>
       </c>
       <c r="C25" t="n">
-        <v>0.628</v>
+        <v>0.621</v>
       </c>
       <c r="D25" t="n">
         <v>0.478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.578</v>
+        <v>0.554</v>
       </c>
       <c r="F25" t="n">
         <v>0.501</v>
@@ -1711,7 +1711,7 @@
         <v>0.584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.678</v>
+        <v>0.631</v>
       </c>
       <c r="D28" t="n">
         <v>0.45</v>
@@ -1809,7 +1809,7 @@
         <v>0.424</v>
       </c>
       <c r="E30" t="n">
-        <v>0.582</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F30" t="n">
         <v>0.535</v>
@@ -1855,10 +1855,10 @@
         <v>0.492</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="F31" t="n">
-        <v>0.543</v>
+        <v>0.503</v>
       </c>
       <c r="G31" t="n">
         <v>0.633</v>
@@ -1895,7 +1895,7 @@
         <v>0.673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.649</v>
+        <v>0.571</v>
       </c>
       <c r="D32" t="n">
         <v>0.426</v>
@@ -1910,7 +1910,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.392</v>
+        <v>0.463</v>
       </c>
       <c r="I32" t="n">
         <v>0.574</v>
@@ -2048,7 +2048,7 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0.366</v>
+        <v>0.374</v>
       </c>
       <c r="I35" t="n">
         <v>0.547</v>
@@ -2152,7 +2152,7 @@
         <v>0.45</v>
       </c>
       <c r="L37" t="n">
-        <v>0.443</v>
+        <v>0.432</v>
       </c>
       <c r="M37" t="n">
         <v>2.021739130434783</v>
@@ -2186,7 +2186,7 @@
         <v>0.645</v>
       </c>
       <c r="H38" t="n">
-        <v>0.362</v>
+        <v>0.401</v>
       </c>
       <c r="I38" t="n">
         <v>0.577</v>
@@ -2198,7 +2198,7 @@
         <v>0.479</v>
       </c>
       <c r="L38" t="n">
-        <v>0.442</v>
+        <v>0.46</v>
       </c>
       <c r="M38" t="n">
         <v>1.480769230769231</v>
@@ -2410,10 +2410,10 @@
         <v>0.539</v>
       </c>
       <c r="F43" t="n">
-        <v>0.533</v>
+        <v>0.521</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.626</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2459,7 +2459,7 @@
         <v>0.569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="H44" t="n">
         <v>0.367</v>
@@ -2508,7 +2508,7 @@
         <v>0.706</v>
       </c>
       <c r="H45" t="n">
-        <v>0.33</v>
+        <v>0.372</v>
       </c>
       <c r="I45" t="n">
         <v>0.54</v>
@@ -2539,7 +2539,7 @@
         <v>0.628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.638</v>
+        <v>0.628</v>
       </c>
       <c r="D46" t="n">
         <v>0.439</v>
@@ -2560,7 +2560,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0.362</v>
+        <v>0.413</v>
       </c>
       <c r="K46" t="n">
         <v>0.44</v>
@@ -2588,7 +2588,7 @@
         <v>0.577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.494</v>
+        <v>0.502</v>
       </c>
       <c r="E47" t="n">
         <v>0.551</v>
@@ -2612,7 +2612,7 @@
         <v>0.483</v>
       </c>
       <c r="L47" t="n">
-        <v>0.482</v>
+        <v>0.453</v>
       </c>
       <c r="M47" t="n">
         <v>1.342857142857143</v>
@@ -2640,10 +2640,10 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.525</v>
+        <v>0.554</v>
       </c>
       <c r="G48" t="n">
-        <v>0.638</v>
+        <v>0.671</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2683,7 +2683,7 @@
         <v>0.412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.597</v>
+        <v>0.533</v>
       </c>
       <c r="F49" t="n">
         <v>0.535</v>
@@ -2695,7 +2695,7 @@
         <v>0.475</v>
       </c>
       <c r="I49" t="n">
-        <v>0.583</v>
+        <v>0.602</v>
       </c>
       <c r="J49" t="n">
         <v>0.533</v>
@@ -2842,7 +2842,7 @@
         <v>0.38</v>
       </c>
       <c r="L52" t="n">
-        <v>0.442</v>
+        <v>0.432</v>
       </c>
       <c r="M52" t="n">
         <v>2.529411764705882</v>
@@ -2919,7 +2919,7 @@
         <v>0.572</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="H54" t="n">
         <v>0.363</v>
@@ -2934,7 +2934,7 @@
         <v>0.453</v>
       </c>
       <c r="L54" t="n">
-        <v>0.407</v>
+        <v>0.444</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -3005,7 +3005,7 @@
         <v>0.452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.588</v>
+        <v>0.547</v>
       </c>
       <c r="F56" t="n">
         <v>0.524</v>
@@ -3020,7 +3020,7 @@
         <v>0.537</v>
       </c>
       <c r="J56" t="n">
-        <v>0.407</v>
+        <v>0.431</v>
       </c>
       <c r="K56" t="n">
         <v>0.478</v>
@@ -3057,10 +3057,10 @@
         <v>0.602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.636</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="I57" t="n">
         <v>0.552</v>
@@ -3118,7 +3118,7 @@
         <v>0.471</v>
       </c>
       <c r="L58" t="n">
-        <v>0.509</v>
+        <v>0.431</v>
       </c>
       <c r="M58" t="n">
         <v>1.818181818181818</v>
@@ -3149,7 +3149,7 @@
         <v>0.621</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H59" t="n">
         <v>0.361</v>
@@ -3164,7 +3164,7 @@
         <v>0.451</v>
       </c>
       <c r="L59" t="n">
-        <v>0.464</v>
+        <v>0.446</v>
       </c>
       <c r="M59" t="n">
         <v>3.038461538461538</v>
@@ -3189,7 +3189,7 @@
         <v>0.494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.538</v>
       </c>
       <c r="F60" t="n">
         <v>0.5669999999999999</v>
@@ -3256,7 +3256,7 @@
         <v>0.398</v>
       </c>
       <c r="L61" t="n">
-        <v>0.47</v>
+        <v>0.433</v>
       </c>
       <c r="M61" t="n">
         <v>2.818181818181818</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.599</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3324,7 +3324,7 @@
         <v>0.616</v>
       </c>
       <c r="D63" t="n">
-        <v>0.465</v>
+        <v>0.444</v>
       </c>
       <c r="E63" t="n">
         <v>0.5580000000000001</v>
@@ -3333,7 +3333,7 @@
         <v>0.555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.625</v>
+        <v>0.642</v>
       </c>
       <c r="H63" t="n">
         <v>0.388</v>
@@ -3434,7 +3434,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>0.266</v>
+        <v>0.379</v>
       </c>
       <c r="K65" t="n">
         <v>0.45</v>
@@ -3459,7 +3459,7 @@
         <v>0.627</v>
       </c>
       <c r="C66" t="n">
-        <v>0.624</v>
+        <v>0.606</v>
       </c>
       <c r="D66" t="n">
         <v>0.458</v>
@@ -3572,7 +3572,7 @@
         <v>0.518</v>
       </c>
       <c r="J68" t="n">
-        <v>0.325</v>
+        <v>0.474</v>
       </c>
       <c r="K68" t="n">
         <v>0.487</v>
@@ -3612,7 +3612,7 @@
         <v>0.616</v>
       </c>
       <c r="H69" t="n">
-        <v>0.371</v>
+        <v>0.444</v>
       </c>
       <c r="I69" t="n">
         <v>0.529</v>
@@ -3670,7 +3670,7 @@
         <v>0.476</v>
       </c>
       <c r="L70" t="n">
-        <v>0.437</v>
+        <v>0.415</v>
       </c>
       <c r="M70" t="n">
         <v>2.88</v>
@@ -3695,7 +3695,7 @@
         <v>0.446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.597</v>
+        <v>0.578</v>
       </c>
       <c r="F71" t="n">
         <v>0.601</v>
@@ -3707,7 +3707,7 @@
         <v>0.331</v>
       </c>
       <c r="I71" t="n">
-        <v>0.534</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J71" t="n">
         <v>0.278</v>
@@ -3808,7 +3808,7 @@
         <v>0.456</v>
       </c>
       <c r="L73" t="n">
-        <v>0.441</v>
+        <v>0.407</v>
       </c>
       <c r="M73" t="n">
         <v>2.28</v>
@@ -3900,7 +3900,7 @@
         <v>0.445</v>
       </c>
       <c r="L75" t="n">
-        <v>0.429</v>
+        <v>0.415</v>
       </c>
       <c r="M75" t="n">
         <v>2.8</v>
@@ -3919,7 +3919,7 @@
         <v>0.661</v>
       </c>
       <c r="C76" t="n">
-        <v>0.626</v>
+        <v>0.662</v>
       </c>
       <c r="D76" t="n">
         <v>0.44</v>
@@ -3940,7 +3940,7 @@
         <v>0.548</v>
       </c>
       <c r="J76" t="n">
-        <v>0.367</v>
+        <v>0.404</v>
       </c>
       <c r="K76" t="n">
         <v>0.442</v>
@@ -3971,7 +3971,7 @@
         <v>0.46</v>
       </c>
       <c r="E77" t="n">
-        <v>0.581</v>
+        <v>0.511</v>
       </c>
       <c r="F77" t="n">
         <v>0.533</v>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.651</v>
+        <v>0.591</v>
       </c>
       <c r="C78" t="n">
         <v>0.644</v>
@@ -4072,10 +4072,10 @@
         <v>0.604</v>
       </c>
       <c r="H79" t="n">
-        <v>0.37</v>
+        <v>0.441</v>
       </c>
       <c r="I79" t="n">
-        <v>0.572</v>
+        <v>0.607</v>
       </c>
       <c r="J79" t="n">
         <v>0.377</v>
@@ -4109,7 +4109,7 @@
         <v>0.463</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.536</v>
       </c>
       <c r="F80" t="n">
         <v>0.5</v>
@@ -4161,10 +4161,10 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.649</v>
       </c>
       <c r="H81" t="n">
-        <v>0.361</v>
+        <v>0.385</v>
       </c>
       <c r="I81" t="n">
         <v>0.503</v>
@@ -4207,7 +4207,7 @@
         <v>0.62</v>
       </c>
       <c r="G82" t="n">
-        <v>0.645</v>
+        <v>0.772</v>
       </c>
       <c r="H82" t="n">
         <v>0.34</v>
@@ -4219,7 +4219,7 @@
         <v>0.285</v>
       </c>
       <c r="K82" t="n">
-        <v>0.456</v>
+        <v>0.392</v>
       </c>
       <c r="L82" t="n">
         <v>0.41</v>
@@ -4241,7 +4241,7 @@
         <v>0.636</v>
       </c>
       <c r="C83" t="n">
-        <v>0.667</v>
+        <v>0.618</v>
       </c>
       <c r="D83" t="n">
         <v>0.456</v>
@@ -4296,13 +4296,13 @@
         <v>0.549</v>
       </c>
       <c r="F84" t="n">
-        <v>0.508</v>
+        <v>0.653</v>
       </c>
       <c r="G84" t="n">
         <v>0.601</v>
       </c>
       <c r="H84" t="n">
-        <v>0.307</v>
+        <v>0.475</v>
       </c>
       <c r="I84" t="n">
         <v>0.544</v>
@@ -4357,7 +4357,7 @@
         <v>0.394</v>
       </c>
       <c r="K85" t="n">
-        <v>0.463</v>
+        <v>0.441</v>
       </c>
       <c r="L85" t="n">
         <v>0.463</v>
@@ -4385,7 +4385,7 @@
         <v>0.431</v>
       </c>
       <c r="E86" t="n">
-        <v>0.575</v>
+        <v>0.523</v>
       </c>
       <c r="F86" t="n">
         <v>0.5580000000000001</v>
@@ -4397,7 +4397,7 @@
         <v>0.314</v>
       </c>
       <c r="I86" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="J86" t="n">
         <v>0.243</v>
@@ -4428,10 +4428,10 @@
         <v>0.615</v>
       </c>
       <c r="D87" t="n">
-        <v>0.455</v>
+        <v>0.416</v>
       </c>
       <c r="E87" t="n">
-        <v>0.575</v>
+        <v>0.545</v>
       </c>
       <c r="F87" t="n">
         <v>0.609</v>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.587</v>
+        <v>0.705</v>
       </c>
       <c r="C88" t="n">
         <v>0.63</v>
@@ -4492,7 +4492,7 @@
         <v>0.502</v>
       </c>
       <c r="J88" t="n">
-        <v>0.279</v>
+        <v>0.471</v>
       </c>
       <c r="K88" t="n">
         <v>0.436</v>
@@ -4517,7 +4517,7 @@
         <v>0.599</v>
       </c>
       <c r="C89" t="n">
-        <v>0.625</v>
+        <v>0.638</v>
       </c>
       <c r="D89" t="n">
         <v>0.453</v>
@@ -4538,7 +4538,7 @@
         <v>0.482</v>
       </c>
       <c r="J89" t="n">
-        <v>0.279</v>
+        <v>0.362</v>
       </c>
       <c r="K89" t="n">
         <v>0.407</v>
@@ -4578,7 +4578,7 @@
         <v>0.599</v>
       </c>
       <c r="H90" t="n">
-        <v>0.382</v>
+        <v>0.447</v>
       </c>
       <c r="I90" t="n">
         <v>0.507</v>
@@ -4618,10 +4618,10 @@
         <v>0.548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.54</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.626</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0.342</v>
@@ -4701,7 +4701,7 @@
         <v>0.625</v>
       </c>
       <c r="C93" t="n">
-        <v>0.644</v>
+        <v>0.641</v>
       </c>
       <c r="D93" t="n">
         <v>0.365</v>
@@ -4713,7 +4713,7 @@
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.647</v>
       </c>
       <c r="H93" t="n">
         <v>0.392</v>
@@ -4805,7 +4805,7 @@
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.622</v>
+        <v>0.754</v>
       </c>
       <c r="H95" t="n">
         <v>0.342</v>
@@ -4851,7 +4851,7 @@
         <v>0.594</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="H96" t="n">
         <v>0.34</v>
@@ -4900,7 +4900,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0.315</v>
+        <v>0.47</v>
       </c>
       <c r="I97" t="n">
         <v>0.5659999999999999</v>
@@ -4934,7 +4934,7 @@
         <v>0.615</v>
       </c>
       <c r="D98" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="E98" t="n">
         <v>0.547</v>
@@ -4946,7 +4946,7 @@
         <v>0.608</v>
       </c>
       <c r="H98" t="n">
-        <v>0.362</v>
+        <v>0.414</v>
       </c>
       <c r="I98" t="n">
         <v>0.523</v>
@@ -4998,7 +4998,7 @@
         <v>0.54</v>
       </c>
       <c r="J99" t="n">
-        <v>0.289</v>
+        <v>0.393</v>
       </c>
       <c r="K99" t="n">
         <v>0.422</v>
@@ -5044,7 +5044,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J100" t="n">
-        <v>0.332</v>
+        <v>0.474</v>
       </c>
       <c r="K100" t="n">
         <v>0.489</v>
